--- a/BOM/ECE411 Team 15 BOM.xlsx
+++ b/BOM/ECE411 Team 15 BOM.xlsx
@@ -11,18 +11,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
   <si>
     <t>Bill Of Materials for: [15] [Circuit Destroyers]</t>
   </si>
   <si>
-    <t>Last modified: [11/12/25]</t>
-  </si>
-  <si>
-    <t>PCB version: [1]</t>
-  </si>
-  <si>
-    <t>BOM revision: [1]</t>
+    <t>Last modified: [11/22/25]</t>
+  </si>
+  <si>
+    <t>PCB version: [2]</t>
+  </si>
+  <si>
+    <t>BOM revision: [2]</t>
   </si>
   <si>
     <t>Qty</t>
@@ -109,16 +109,16 @@
     <t>Adafruit HUZZAH32 – ESP32 Feather Board (pre-soldered)</t>
   </si>
   <si>
-    <t>R1</t>
+    <t>R4</t>
   </si>
   <si>
     <t>10k Resistor</t>
   </si>
   <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>15k Resistor</t>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>15k (5k + 10k) Resistor</t>
   </si>
   <si>
     <t>Jumper Cables</t>
@@ -142,6 +142,21 @@
     <t>SEN-15569</t>
   </si>
   <si>
+    <t>R1, R2, R3</t>
+  </si>
+  <si>
+    <t>330 ohm Resistor</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>StemmaQT</t>
+  </si>
+  <si>
+    <t>Monochrome 0.91 128x32 I2c Oled Display</t>
+  </si>
+  <si>
     <t>TOTAL:</t>
   </si>
   <si>
@@ -154,7 +169,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>1.0r0</t>
+    <t>1.0r1</t>
   </si>
 </sst>
 </file>
@@ -165,7 +180,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -190,6 +205,15 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -218,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -254,6 +278,18 @@
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -880,25 +916,62 @@
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="A18" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="I18" s="18">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="A19" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="19">
+        <v>4440.0</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="19">
+        <v>4440.0</v>
+      </c>
+      <c r="H19" s="18">
+        <v>12.5</v>
+      </c>
+      <c r="I19" s="18">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="5"/>
@@ -1099,21 +1172,21 @@
       <c r="I37" s="6"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="H38" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="I38" s="17">
+      <c r="H38" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" s="21">
         <f>SUM(I7:I37)</f>
-        <v>30.15</v>
+        <v>42.65</v>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -1129,21 +1202,21 @@
       <c r="I41" s="6"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>46</v>
+      <c r="A42" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>51</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="20">
-        <v>45974.0</v>
+      <c r="A43" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="24">
+        <v>45983.0</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
